--- a/team_specific_matrix/Portland_B.xlsx
+++ b/team_specific_matrix/Portland_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2061855670103093</v>
+        <v>0.208984375</v>
       </c>
       <c r="C2">
-        <v>0.5128865979381443</v>
+        <v>0.5078125</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03092783505154639</v>
+        <v>0.0234375</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1469072164948454</v>
+        <v>0.150390625</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1030927835051546</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00966183574879227</v>
+        <v>0.01486988847583643</v>
       </c>
       <c r="C3">
-        <v>0.03864734299516908</v>
+        <v>0.02973977695167286</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05314009661835749</v>
+        <v>0.04089219330855019</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.748792270531401</v>
+        <v>0.7323420074349443</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1497584541062802</v>
+        <v>0.1821561338289963</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04054054054054054</v>
+        <v>0.07954545454545454</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01351351351351351</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="P4">
-        <v>0.6756756756756757</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2702702702702703</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04424778761061947</v>
+        <v>0.0457516339869281</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01769911504424779</v>
+        <v>0.01525054466230937</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07964601769911504</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2448377581120944</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02949852507374631</v>
+        <v>0.03267973856209151</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1622418879056047</v>
+        <v>0.1546840958605664</v>
       </c>
       <c r="R6">
-        <v>0.08554572271386431</v>
+        <v>0.07625272331154684</v>
       </c>
       <c r="S6">
-        <v>0.336283185840708</v>
+        <v>0.3464052287581699</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09701492537313433</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02985074626865672</v>
+        <v>0.02465753424657534</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.005479452054794521</v>
       </c>
       <c r="F7">
-        <v>0.05223880597014925</v>
+        <v>0.06027397260273973</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1268656716417911</v>
+        <v>0.1342465753424658</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02238805970149254</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1828358208955224</v>
+        <v>0.1753424657534247</v>
       </c>
       <c r="R7">
-        <v>0.09328358208955224</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="S7">
-        <v>0.3955223880597015</v>
+        <v>0.3972602739726027</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08532423208191127</v>
+        <v>0.08668341708542714</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01535836177474403</v>
+        <v>0.01633165829145729</v>
       </c>
       <c r="E8">
-        <v>0.001706484641638225</v>
+        <v>0.001256281407035176</v>
       </c>
       <c r="F8">
-        <v>0.06143344709897611</v>
+        <v>0.06407035175879397</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1194539249146758</v>
+        <v>0.1218592964824121</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02218430034129693</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1877133105802048</v>
+        <v>0.1947236180904523</v>
       </c>
       <c r="R8">
-        <v>0.1040955631399317</v>
+        <v>0.10678391959799</v>
       </c>
       <c r="S8">
-        <v>0.4027303754266212</v>
+        <v>0.3881909547738693</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08950617283950617</v>
+        <v>0.0966183574879227</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01234567901234568</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="E9">
-        <v>0.00308641975308642</v>
+        <v>0.002415458937198068</v>
       </c>
       <c r="F9">
-        <v>0.09567901234567901</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1358024691358025</v>
+        <v>0.1280193236714976</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03703703703703703</v>
+        <v>0.04830917874396135</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1759259259259259</v>
+        <v>0.1714975845410628</v>
       </c>
       <c r="R9">
-        <v>0.1358024691358025</v>
+        <v>0.1328502415458937</v>
       </c>
       <c r="S9">
-        <v>0.3148148148148148</v>
+        <v>0.3236714975845411</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.091</v>
+        <v>0.08738980452280568</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0235</v>
+        <v>0.02069758528171713</v>
       </c>
       <c r="E10">
-        <v>0.0005</v>
+        <v>0.0007665772326561902</v>
       </c>
       <c r="F10">
-        <v>0.068</v>
+        <v>0.0697585281717133</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.125</v>
+        <v>0.1215024913760061</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0255</v>
+        <v>0.02453047144499809</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2085</v>
+        <v>0.2108087389804523</v>
       </c>
       <c r="R10">
-        <v>0.1125</v>
+        <v>0.1061709467228823</v>
       </c>
       <c r="S10">
-        <v>0.3455</v>
+        <v>0.3583748562667689</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1464019851116625</v>
+        <v>0.1393728222996516</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09677419354838709</v>
+        <v>0.1045296167247387</v>
       </c>
       <c r="K11">
-        <v>0.1811414392059553</v>
+        <v>0.1846689895470383</v>
       </c>
       <c r="L11">
-        <v>0.5607940446650124</v>
+        <v>0.5592334494773519</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01488833746898263</v>
+        <v>0.01219512195121951</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7345132743362832</v>
+        <v>0.7236024844720497</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2389380530973451</v>
+        <v>0.2546583850931677</v>
       </c>
       <c r="K12">
-        <v>0.008849557522123894</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="L12">
-        <v>0.004424778761061947</v>
+        <v>0.003105590062111801</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01327433628318584</v>
+        <v>0.0124223602484472</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6891891891891891</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2702702702702703</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04054054054054054</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01754385964912281</v>
+        <v>0.02188183807439825</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1345029239766082</v>
+        <v>0.1444201312910285</v>
       </c>
       <c r="I15">
-        <v>0.06725146198830409</v>
+        <v>0.06345733041575492</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3282275711159737</v>
       </c>
       <c r="K15">
-        <v>0.07309941520467836</v>
+        <v>0.06345733041575492</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02046783625730994</v>
+        <v>0.01969365426695843</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07602339181286549</v>
+        <v>0.0700218818380744</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2777777777777778</v>
+        <v>0.2888402625820569</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01945525291828794</v>
+        <v>0.02760736196319018</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1245136186770428</v>
+        <v>0.1564417177914111</v>
       </c>
       <c r="I16">
-        <v>0.07392996108949416</v>
+        <v>0.0705521472392638</v>
       </c>
       <c r="J16">
-        <v>0.4513618677042802</v>
+        <v>0.4325153374233129</v>
       </c>
       <c r="K16">
-        <v>0.1206225680933852</v>
+        <v>0.1257668711656442</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03501945525291829</v>
+        <v>0.02760736196319018</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04280155642023346</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.132295719844358</v>
+        <v>0.1226993865030675</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01323529411764706</v>
+        <v>0.01779755283648498</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1632352941176471</v>
+        <v>0.1635150166852058</v>
       </c>
       <c r="I17">
-        <v>0.1058823529411765</v>
+        <v>0.1078976640711902</v>
       </c>
       <c r="J17">
-        <v>0.4470588235294118</v>
+        <v>0.4271412680756396</v>
       </c>
       <c r="K17">
-        <v>0.0838235294117647</v>
+        <v>0.09232480533926585</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02941176470588235</v>
+        <v>0.02669632925472748</v>
       </c>
       <c r="N17">
-        <v>0.001470588235294118</v>
+        <v>0.001112347052280311</v>
       </c>
       <c r="O17">
-        <v>0.06176470588235294</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09411764705882353</v>
+        <v>0.09899888765294772</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02864583333333333</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1901041666666667</v>
+        <v>0.1995841995841996</v>
       </c>
       <c r="I18">
-        <v>0.1041666666666667</v>
+        <v>0.103950103950104</v>
       </c>
       <c r="J18">
-        <v>0.4166666666666667</v>
+        <v>0.4074844074844075</v>
       </c>
       <c r="K18">
-        <v>0.07552083333333333</v>
+        <v>0.07276507276507277</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01822916666666667</v>
+        <v>0.01871101871101871</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04947916666666666</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1171875</v>
+        <v>0.1164241164241164</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01237345331833521</v>
+        <v>0.01455301455301455</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1816647919010124</v>
+        <v>0.1808731808731809</v>
       </c>
       <c r="I19">
-        <v>0.09561304836895389</v>
+        <v>0.09022869022869023</v>
       </c>
       <c r="J19">
-        <v>0.4088863892013498</v>
+        <v>0.3995841995841996</v>
       </c>
       <c r="K19">
-        <v>0.09673790776152981</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02080989876265467</v>
+        <v>0.01954261954261954</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0004158004158004158</v>
       </c>
       <c r="O19">
-        <v>0.06355455568053993</v>
+        <v>0.06278586278586279</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1203599550056243</v>
+        <v>0.1239085239085239</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Portland_B.xlsx
+++ b/team_specific_matrix/Portland_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.208984375</v>
+        <v>0.2050359712230216</v>
       </c>
       <c r="C2">
-        <v>0.5078125</v>
+        <v>0.512589928057554</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0234375</v>
+        <v>0.02158273381294964</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.150390625</v>
+        <v>0.1474820143884892</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.109375</v>
+        <v>0.1133093525179856</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01486988847583643</v>
+        <v>0.0135593220338983</v>
       </c>
       <c r="C3">
-        <v>0.02973977695167286</v>
+        <v>0.03050847457627119</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04089219330855019</v>
+        <v>0.03728813559322034</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7323420074349443</v>
+        <v>0.7389830508474576</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1821561338289963</v>
+        <v>0.1796610169491525</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07954545454545454</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01136363636363636</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="P4">
-        <v>0.6363636363636364</v>
+        <v>0.6413043478260869</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2727272727272727</v>
+        <v>0.2717391304347826</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0457516339869281</v>
+        <v>0.04646464646464647</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01525054466230937</v>
+        <v>0.01414141414141414</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07407407407407407</v>
+        <v>0.07474747474747474</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2549019607843137</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03267973856209151</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1546840958605664</v>
+        <v>0.1535353535353535</v>
       </c>
       <c r="R6">
-        <v>0.07625272331154684</v>
+        <v>0.07474747474747474</v>
       </c>
       <c r="S6">
-        <v>0.3464052287581699</v>
+        <v>0.3515151515151515</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09315068493150686</v>
+        <v>0.09975062344139651</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02465753424657534</v>
+        <v>0.02244389027431421</v>
       </c>
       <c r="E7">
-        <v>0.005479452054794521</v>
+        <v>0.004987531172069825</v>
       </c>
       <c r="F7">
-        <v>0.06027397260273973</v>
+        <v>0.06234413965087282</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1342465753424658</v>
+        <v>0.1371571072319202</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0273972602739726</v>
+        <v>0.02743142144638404</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1753424657534247</v>
+        <v>0.1745635910224439</v>
       </c>
       <c r="R7">
-        <v>0.0821917808219178</v>
+        <v>0.08478802992518704</v>
       </c>
       <c r="S7">
-        <v>0.3972602739726027</v>
+        <v>0.3865336658354115</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08668341708542714</v>
+        <v>0.08568075117370892</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01633165829145729</v>
+        <v>0.01643192488262911</v>
       </c>
       <c r="E8">
-        <v>0.001256281407035176</v>
+        <v>0.001173708920187793</v>
       </c>
       <c r="F8">
-        <v>0.06407035175879397</v>
+        <v>0.06455399061032864</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1218592964824121</v>
+        <v>0.1208920187793427</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02010050251256281</v>
+        <v>0.01995305164319249</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1947236180904523</v>
+        <v>0.1948356807511737</v>
       </c>
       <c r="R8">
-        <v>0.10678391959799</v>
+        <v>0.1009389671361502</v>
       </c>
       <c r="S8">
-        <v>0.3881909547738693</v>
+        <v>0.3955399061032864</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0966183574879227</v>
+        <v>0.09213483146067415</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00966183574879227</v>
+        <v>0.008988764044943821</v>
       </c>
       <c r="E9">
-        <v>0.002415458937198068</v>
+        <v>0.002247191011235955</v>
       </c>
       <c r="F9">
-        <v>0.08695652173913043</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1280193236714976</v>
+        <v>0.1280898876404494</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04830917874396135</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1714975845410628</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="R9">
-        <v>0.1328502415458937</v>
+        <v>0.1280898876404494</v>
       </c>
       <c r="S9">
-        <v>0.3236714975845411</v>
+        <v>0.3370786516853932</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08738980452280568</v>
+        <v>0.09019044196909809</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02069758528171713</v>
+        <v>0.02048149478979518</v>
       </c>
       <c r="E10">
-        <v>0.0007665772326561902</v>
+        <v>0.0007186489399928135</v>
       </c>
       <c r="F10">
-        <v>0.0697585281717133</v>
+        <v>0.06970894717930291</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1215024913760061</v>
+        <v>0.1189363995688106</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02453047144499809</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2108087389804523</v>
+        <v>0.2091268415379087</v>
       </c>
       <c r="R10">
-        <v>0.1061709467228823</v>
+        <v>0.1092346388789077</v>
       </c>
       <c r="S10">
-        <v>0.3583748562667689</v>
+        <v>0.3568091987064319</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1393728222996516</v>
+        <v>0.1482649842271293</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1045296167247387</v>
+        <v>0.1025236593059937</v>
       </c>
       <c r="K11">
-        <v>0.1846689895470383</v>
+        <v>0.194006309148265</v>
       </c>
       <c r="L11">
-        <v>0.5592334494773519</v>
+        <v>0.5425867507886435</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01219512195121951</v>
+        <v>0.01261829652996845</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7236024844720497</v>
+        <v>0.7304347826086957</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2546583850931677</v>
+        <v>0.2492753623188406</v>
       </c>
       <c r="K12">
-        <v>0.006211180124223602</v>
+        <v>0.005797101449275362</v>
       </c>
       <c r="L12">
-        <v>0.003105590062111801</v>
+        <v>0.002898550724637681</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0124223602484472</v>
+        <v>0.01159420289855072</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6956521739130435</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2608695652173913</v>
+        <v>0.2525252525252525</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04347826086956522</v>
+        <v>0.0505050505050505</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02188183807439825</v>
+        <v>0.02240325865580448</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1444201312910285</v>
+        <v>0.1384928716904277</v>
       </c>
       <c r="I15">
-        <v>0.06345733041575492</v>
+        <v>0.06313645621181263</v>
       </c>
       <c r="J15">
-        <v>0.3282275711159737</v>
+        <v>0.3258655804480652</v>
       </c>
       <c r="K15">
-        <v>0.06345733041575492</v>
+        <v>0.06720977596741344</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01969365426695843</v>
+        <v>0.01832993890020367</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0700218818380744</v>
+        <v>0.07535641547861507</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2888402625820569</v>
+        <v>0.2892057026476578</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02760736196319018</v>
+        <v>0.03107344632768362</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1564417177914111</v>
+        <v>0.1581920903954802</v>
       </c>
       <c r="I16">
-        <v>0.0705521472392638</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="J16">
-        <v>0.4325153374233129</v>
+        <v>0.4209039548022599</v>
       </c>
       <c r="K16">
-        <v>0.1257668711656442</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02760736196319018</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03680981595092025</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1226993865030675</v>
+        <v>0.1299435028248588</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01779755283648498</v>
+        <v>0.01776384535005225</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1635150166852058</v>
+        <v>0.1630094043887147</v>
       </c>
       <c r="I17">
-        <v>0.1078976640711902</v>
+        <v>0.1086729362591431</v>
       </c>
       <c r="J17">
-        <v>0.4271412680756396</v>
+        <v>0.4263322884012539</v>
       </c>
       <c r="K17">
-        <v>0.09232480533926585</v>
+        <v>0.08986415882967608</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02669632925472748</v>
+        <v>0.02716823406478579</v>
       </c>
       <c r="N17">
-        <v>0.001112347052280311</v>
+        <v>0.001044932079414838</v>
       </c>
       <c r="O17">
-        <v>0.06451612903225806</v>
+        <v>0.06374085684430512</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09899888765294772</v>
+        <v>0.1024033437826541</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02702702702702703</v>
+        <v>0.02707930367504836</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1995841995841996</v>
+        <v>0.1972920696324952</v>
       </c>
       <c r="I18">
-        <v>0.103950103950104</v>
+        <v>0.1005802707930367</v>
       </c>
       <c r="J18">
-        <v>0.4074844074844075</v>
+        <v>0.4119922630560928</v>
       </c>
       <c r="K18">
-        <v>0.07276507276507277</v>
+        <v>0.08123791102514506</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01871101871101871</v>
+        <v>0.01740812379110251</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05405405405405406</v>
+        <v>0.05029013539651837</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1164241164241164</v>
+        <v>0.1141199226305609</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01455301455301455</v>
+        <v>0.01427469135802469</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1808731808731809</v>
+        <v>0.1809413580246914</v>
       </c>
       <c r="I19">
-        <v>0.09022869022869023</v>
+        <v>0.09027777777777778</v>
       </c>
       <c r="J19">
-        <v>0.3995841995841996</v>
+        <v>0.3981481481481481</v>
       </c>
       <c r="K19">
-        <v>0.1081081081081081</v>
+        <v>0.1091820987654321</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01954261954261954</v>
+        <v>0.02006172839506173</v>
       </c>
       <c r="N19">
-        <v>0.0004158004158004158</v>
+        <v>0.0003858024691358024</v>
       </c>
       <c r="O19">
-        <v>0.06278586278586279</v>
+        <v>0.06404320987654322</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1239085239085239</v>
+        <v>0.1226851851851852</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Portland_B.xlsx
+++ b/team_specific_matrix/Portland_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2050359712230216</v>
+        <v>0.2042628774422735</v>
       </c>
       <c r="C2">
-        <v>0.512589928057554</v>
+        <v>0.5150976909413855</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02158273381294964</v>
+        <v>0.02131438721136767</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1474820143884892</v>
+        <v>0.1474245115452931</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1133093525179856</v>
+        <v>0.1119005328596803</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0135593220338983</v>
+        <v>0.0132890365448505</v>
       </c>
       <c r="C3">
-        <v>0.03050847457627119</v>
+        <v>0.02990033222591362</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03728813559322034</v>
+        <v>0.03654485049833887</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7389830508474576</v>
+        <v>0.7375415282392026</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1796610169491525</v>
+        <v>0.1827242524916944</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04646464646464647</v>
+        <v>0.04536489151873768</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01414141414141414</v>
+        <v>0.01380670611439842</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07474747474747474</v>
+        <v>0.07495069033530571</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2545454545454545</v>
+        <v>0.252465483234714</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0303030303030303</v>
+        <v>0.03155818540433925</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1535353535353535</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R6">
-        <v>0.07474747474747474</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S6">
-        <v>0.3515151515151515</v>
+        <v>0.3510848126232742</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09975062344139651</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02244389027431421</v>
+        <v>0.02195121951219512</v>
       </c>
       <c r="E7">
-        <v>0.004987531172069825</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="F7">
-        <v>0.06234413965087282</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1371571072319202</v>
+        <v>0.1414634146341463</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02743142144638404</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1745635910224439</v>
+        <v>0.1731707317073171</v>
       </c>
       <c r="R7">
-        <v>0.08478802992518704</v>
+        <v>0.08292682926829269</v>
       </c>
       <c r="S7">
-        <v>0.3865336658354115</v>
+        <v>0.3804878048780488</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08568075117370892</v>
+        <v>0.08650519031141868</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01643192488262911</v>
+        <v>0.01614763552479815</v>
       </c>
       <c r="E8">
-        <v>0.001173708920187793</v>
+        <v>0.001153402537485583</v>
       </c>
       <c r="F8">
-        <v>0.06455399061032864</v>
+        <v>0.06574394463667819</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1208920187793427</v>
+        <v>0.118800461361015</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01995305164319249</v>
+        <v>0.02076124567474048</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1948356807511737</v>
+        <v>0.1949250288350634</v>
       </c>
       <c r="R8">
-        <v>0.1009389671361502</v>
+        <v>0.1003460207612457</v>
       </c>
       <c r="S8">
-        <v>0.3955399061032864</v>
+        <v>0.3956170703575548</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09213483146067415</v>
+        <v>0.09292035398230089</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008988764044943821</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="E9">
-        <v>0.002247191011235955</v>
+        <v>0.002212389380530973</v>
       </c>
       <c r="F9">
-        <v>0.0898876404494382</v>
+        <v>0.09070796460176991</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1280898876404494</v>
+        <v>0.1261061946902655</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0449438202247191</v>
+        <v>0.04424778761061947</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1685393258426966</v>
+        <v>0.1703539823008849</v>
       </c>
       <c r="R9">
-        <v>0.1280898876404494</v>
+        <v>0.1283185840707965</v>
       </c>
       <c r="S9">
-        <v>0.3370786516853932</v>
+        <v>0.336283185840708</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09019044196909809</v>
+        <v>0.09019886363636363</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02048149478979518</v>
+        <v>0.02024147727272727</v>
       </c>
       <c r="E10">
-        <v>0.0007186489399928135</v>
+        <v>0.0007102272727272727</v>
       </c>
       <c r="F10">
-        <v>0.06970894717930291</v>
+        <v>0.06924715909090909</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1189363995688106</v>
+        <v>0.1178977272727273</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02479338842975207</v>
+        <v>0.02485795454545454</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2091268415379087</v>
+        <v>0.2077414772727273</v>
       </c>
       <c r="R10">
-        <v>0.1092346388789077</v>
+        <v>0.109375</v>
       </c>
       <c r="S10">
-        <v>0.3568091987064319</v>
+        <v>0.3597301136363636</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1482649842271293</v>
+        <v>0.1490015360983103</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1025236593059937</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="K11">
-        <v>0.194006309148265</v>
+        <v>0.1966205837173579</v>
       </c>
       <c r="L11">
-        <v>0.5425867507886435</v>
+        <v>0.5345622119815668</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01261829652996845</v>
+        <v>0.01228878648233487</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7304347826086957</v>
+        <v>0.7335243553008596</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2492753623188406</v>
+        <v>0.2464183381088825</v>
       </c>
       <c r="K12">
-        <v>0.005797101449275362</v>
+        <v>0.005730659025787965</v>
       </c>
       <c r="L12">
-        <v>0.002898550724637681</v>
+        <v>0.002865329512893983</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01159420289855072</v>
+        <v>0.01146131805157593</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.696969696969697</v>
+        <v>0.696078431372549</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2525252525252525</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0505050505050505</v>
+        <v>0.04901960784313725</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02240325865580448</v>
+        <v>0.02208835341365462</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1384928716904277</v>
+        <v>0.1365461847389558</v>
       </c>
       <c r="I15">
-        <v>0.06313645621181263</v>
+        <v>0.06224899598393574</v>
       </c>
       <c r="J15">
-        <v>0.3258655804480652</v>
+        <v>0.321285140562249</v>
       </c>
       <c r="K15">
-        <v>0.06720977596741344</v>
+        <v>0.07028112449799197</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01832993890020367</v>
+        <v>0.02008032128514056</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07535641547861507</v>
+        <v>0.07429718875502007</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2892057026476578</v>
+        <v>0.2931726907630522</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03107344632768362</v>
+        <v>0.03064066852367688</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1581920903954802</v>
+        <v>0.1587743732590529</v>
       </c>
       <c r="I16">
-        <v>0.07344632768361582</v>
+        <v>0.07242339832869081</v>
       </c>
       <c r="J16">
-        <v>0.4209039548022599</v>
+        <v>0.4206128133704735</v>
       </c>
       <c r="K16">
-        <v>0.1271186440677966</v>
+        <v>0.1253481894150418</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02542372881355932</v>
+        <v>0.02506963788300836</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03389830508474576</v>
+        <v>0.03342618384401114</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1299435028248588</v>
+        <v>0.1337047353760446</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01776384535005225</v>
+        <v>0.01756198347107438</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1630094043887147</v>
+        <v>0.1652892561983471</v>
       </c>
       <c r="I17">
-        <v>0.1086729362591431</v>
+        <v>0.1074380165289256</v>
       </c>
       <c r="J17">
-        <v>0.4263322884012539</v>
+        <v>0.4256198347107438</v>
       </c>
       <c r="K17">
-        <v>0.08986415882967608</v>
+        <v>0.08884297520661157</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02716823406478579</v>
+        <v>0.02789256198347108</v>
       </c>
       <c r="N17">
-        <v>0.001044932079414838</v>
+        <v>0.001033057851239669</v>
       </c>
       <c r="O17">
-        <v>0.06374085684430512</v>
+        <v>0.0640495867768595</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1024033437826541</v>
+        <v>0.1022727272727273</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02707930367504836</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1972920696324952</v>
+        <v>0.1961904761904762</v>
       </c>
       <c r="I18">
-        <v>0.1005802707930367</v>
+        <v>0.09904761904761905</v>
       </c>
       <c r="J18">
-        <v>0.4119922630560928</v>
+        <v>0.4114285714285714</v>
       </c>
       <c r="K18">
-        <v>0.08123791102514506</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01740812379110251</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05029013539651837</v>
+        <v>0.04952380952380953</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1141199226305609</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01427469135802469</v>
+        <v>0.01473922902494331</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1809413580246914</v>
+        <v>0.1806500377928949</v>
       </c>
       <c r="I19">
-        <v>0.09027777777777778</v>
+        <v>0.09108087679516251</v>
       </c>
       <c r="J19">
-        <v>0.3981481481481481</v>
+        <v>0.3949357520786092</v>
       </c>
       <c r="K19">
-        <v>0.1091820987654321</v>
+        <v>0.109599395313681</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02006172839506173</v>
+        <v>0.0200302343159486</v>
       </c>
       <c r="N19">
-        <v>0.0003858024691358024</v>
+        <v>0.0003779289493575208</v>
       </c>
       <c r="O19">
-        <v>0.06404320987654322</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1226851851851852</v>
+        <v>0.1250944822373394</v>
       </c>
     </row>
   </sheetData>
